--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="managers" sheetId="1" r:id="rId1"/>
     <sheet name="products" sheetId="2" r:id="rId2"/>
+    <sheet name="units" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>login</t>
   </si>
@@ -63,6 +64,27 @@
   </si>
   <si>
     <t>ЦЕМ I 42.5Н Беларусь</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>тонн</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>т.</t>
+  </si>
+  <si>
+    <t>т</t>
+  </si>
+  <si>
+    <t>кубов</t>
+  </si>
+  <si>
+    <t>куб</t>
   </si>
 </sst>
 </file>
@@ -429,7 +451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -477,9 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -534,4 +556,63 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="managers" sheetId="1" r:id="rId1"/>
     <sheet name="products" sheetId="2" r:id="rId2"/>
     <sheet name="units" sheetId="3" r:id="rId3"/>
+    <sheet name="unload_addresses" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>login</t>
   </si>
@@ -66,32 +67,116 @@
     <t>ЦЕМ I 42.5Н Беларусь</t>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>unit</t>
   </si>
   <si>
+    <t>т</t>
+  </si>
+  <si>
+    <t>т.</t>
+  </si>
+  <si>
+    <t>тн</t>
+  </si>
+  <si>
     <t>тонн</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>т.</t>
-  </si>
-  <si>
-    <t>т</t>
-  </si>
-  <si>
     <t>кубов</t>
   </si>
   <si>
     <t>куб</t>
+  </si>
+  <si>
+    <t>pattern1</t>
+  </si>
+  <si>
+    <t>pattern2</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Бетонная индустрия</t>
+  </si>
+  <si>
+    <t>Бетон Строй</t>
+  </si>
+  <si>
+    <t>МСУ-1</t>
+  </si>
+  <si>
+    <t>БетонПром</t>
+  </si>
+  <si>
+    <t>Сибирский элемент Рента</t>
+  </si>
+  <si>
+    <t>КАНТАН</t>
+  </si>
+  <si>
+    <t>М Бетон</t>
+  </si>
+  <si>
+    <t>"ТД"Цемент</t>
+  </si>
+  <si>
+    <t>Одинцово</t>
+  </si>
+  <si>
+    <t>Солнечногорск</t>
+  </si>
+  <si>
+    <t>Бескудниковский</t>
+  </si>
+  <si>
+    <t>Октябрьский</t>
+  </si>
+  <si>
+    <t>Обухово</t>
+  </si>
+  <si>
+    <t>Соколовское</t>
+  </si>
+  <si>
+    <t>Очаковское</t>
+  </si>
+  <si>
+    <t>Голицыно</t>
+  </si>
+  <si>
+    <t>Одинцово. Кобяковская. Краснознаменск.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">город Солнечногорск, ул. Промышленная 1б </t>
+  </si>
+  <si>
+    <t>Москва, Бескудниковский бульвар, 52к1</t>
+  </si>
+  <si>
+    <t>Октябрьский, улица Старый двор, промзона</t>
+  </si>
+  <si>
+    <t>Калужская обл., Дзержинский р-н, д. Обухово 1Б</t>
+  </si>
+  <si>
+    <t>Московская обл., территориальное упр-е Соколовское, г.о. Солнечногорск</t>
+  </si>
+  <si>
+    <t>Москва г, Очаковское ш., дом 5А, въезд с проезда Стройкомбината</t>
+  </si>
+  <si>
+    <t>Голицыно, Можайское ш., 81, РБУ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,22 +235,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -203,7 +283,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -237,7 +317,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -272,10 +351,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,19 +526,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="16" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -476,7 +549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -484,7 +557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -498,57 +571,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -559,57 +629,171 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="managers" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="units" sheetId="3" r:id="rId3"/>
     <sheet name="unload_addresses" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -175,8 +175,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,17 +235,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -283,7 +288,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -317,6 +322,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -351,9 +357,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -526,14 +533,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -549,7 +559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -557,7 +567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -571,54 +581,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -629,14 +639,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -644,7 +654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -652,7 +662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -660,7 +670,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -668,7 +678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -676,7 +686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -690,14 +700,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -708,7 +722,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -719,7 +733,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -730,7 +744,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -741,7 +755,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -752,7 +766,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -763,7 +777,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -774,7 +788,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -785,7 +799,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>

--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="managers" sheetId="1" r:id="rId1"/>
-    <sheet name="products" sheetId="2" r:id="rId2"/>
+    <sheet name="unload_addresses" sheetId="4" r:id="rId2"/>
     <sheet name="units" sheetId="3" r:id="rId3"/>
-    <sheet name="unload_addresses" sheetId="4" r:id="rId4"/>
+    <sheet name="products" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -91,12 +91,6 @@
     <t>куб</t>
   </si>
   <si>
-    <t>pattern1</t>
-  </si>
-  <si>
-    <t>pattern2</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -170,6 +164,12 @@
   </si>
   <si>
     <t>Голицыно, Можайское ш., 81, РБУ</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -582,55 +582,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -701,113 +761,55 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/dictionary.xlsx
+++ b/dictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="managers" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -585,7 +585,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -702,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
